--- a/public/data/valorMetroQuadrado.xlsx
+++ b/public/data/valorMetroQuadrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awer\c2di-3110\c2di-front\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED74FC3-649E-4F57-975A-94BFC0E4C9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CD5F5-1B29-4647-A913-D2021117B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3156" yWindow="1968" windowWidth="30960" windowHeight="12120" xr2:uid="{E70F89D0-270B-4305-9657-B865718F8947}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{E70F89D0-270B-4305-9657-B865718F8947}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -437,16 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBA3C8C-4395-41A3-9FC6-E647E0C721A4}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -458,155 +458,131 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>7100</v>
-      </c>
-      <c r="B2" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45691</v>
+      <c r="A2" s="2">
+        <v>12325</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45235</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <f>A2+A2*0.05%</f>
-        <v>7103.55</v>
-      </c>
-      <c r="B3" s="1">
-        <f ca="1">B2+30</f>
-        <v>45721</v>
+      <c r="A3" s="2">
+        <v>12313.907499999999</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45265</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <f t="shared" ref="A4:A17" si="0">A3+A3*0.05%</f>
-        <v>7107.1017750000001</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B10" ca="1" si="1">B3+30</f>
-        <v>45751</v>
+      <c r="A4" s="2">
+        <v>12331.1469705</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45295</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>7110.6553258875001</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>45781</v>
+      <c r="A5" s="2">
+        <v>12333.6131998941</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>7114.2106535504436</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>45811</v>
+      <c r="A6" s="2">
+        <v>12343.480090454015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45355</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>7117.7677588772185</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>45841</v>
+      <c r="A7" s="2">
+        <v>12354.589222535424</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45385</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>7121.3266427566568</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>45871</v>
+      <c r="A8" s="2">
+        <v>12371.885647446974</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45415</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>7124.8873060780352</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>45901</v>
+      <c r="A9" s="2">
+        <v>12364.462516058506</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45445</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>7128.449749731074</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>7132.0139746059394</v>
+      <c r="A10" s="2">
+        <v>12385.482102335805</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>12378.050813074404</v>
       </c>
       <c r="B11" s="3">
-        <v>45961</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>7135.5799815932423</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45991</v>
+      <c r="A12" s="2">
+        <v>12392.904474050092</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45535</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>7139.1477715840392</v>
-      </c>
-      <c r="B13" s="1">
-        <v>46021</v>
+      <c r="A13" s="2">
+        <v>12399.100926287118</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45565</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>7142.7173454698313</v>
-      </c>
-      <c r="B14" s="1">
-        <v>46051</v>
+      <c r="A14" s="2">
+        <v>12416.45966758392</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45595</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>7146.2887041425665</v>
-      </c>
-      <c r="B15" s="1">
-        <v>46081</v>
+      <c r="A15" s="2">
+        <v>12427.634481284746</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45625</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>7149.8618484946383</v>
-      </c>
-      <c r="B16" s="1">
-        <v>46111</v>
+      <c r="A16" s="2">
+        <v>12432.60553507726</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45655</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>7153.4367794188856</v>
-      </c>
-      <c r="B17" s="1">
-        <v>46141</v>
+      <c r="A17" s="2">
+        <v>12435.092056184276</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45685</v>
       </c>
     </row>
   </sheetData>
